--- a/biology/Zoologie/Actinopterygii/Actinopterygii.xlsx
+++ b/biology/Zoologie/Actinopterygii/Actinopterygii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les actinoptérygiens (Actinopterygii) constituent la classe des poissons à nageoires rayonnées. Groupe le plus diversifié des vertébrés, les actinoptérygiens sont aussi bien dulcicoles que marins.
 Les actinoptérygiens composent, avec les sarcoptérygiens (« poissons à nageoires charnues » et tétrapodes), le groupe des osteichthyens. Ils sont remplacés dans certaines classifications par les Actinopteri.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec ancien ἀκτίς / aktís, « rayon » et πτέρυξ / ptéryx, « aile, nageoire ».
 </t>
@@ -544,13 +558,15 @@
           <t>Caractères dérivés propres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nageoires membraneuses[1] soutenues par des rayons exosquelettiques d'origine dermique (rayons simples et collagèniques, appelés actinotriches chez les Chondrostéens ; rayons simples ou articulés, ossifiés et homologues d'écailles, appelés lépidotriches chez les Ostéichthyens). Une musculature intrinsèque commande l'abduction et l'adduction de chaque rayon individuellement, permettant un meilleur contrôle de la nage[2].
-Vessie natatoire développée à partir des sacs aériens connectés dorsalement au tube digestif[3].
-Apex des dents recouverts d'un capuchon d'acrodine (dentine hyperminéralisée)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nageoires membraneuses soutenues par des rayons exosquelettiques d'origine dermique (rayons simples et collagèniques, appelés actinotriches chez les Chondrostéens ; rayons simples ou articulés, ossifiés et homologues d'écailles, appelés lépidotriches chez les Ostéichthyens). Une musculature intrinsèque commande l'abduction et l'adduction de chaque rayon individuellement, permettant un meilleur contrôle de la nage.
+Vessie natatoire développée à partir des sacs aériens connectés dorsalement au tube digestif.
+Apex des dents recouverts d'un capuchon d'acrodine (dentine hyperminéralisée).
 Revêtement léger et flexible d'écailles constituées de fines plaques osseuses.
-Hématies nucléées, contrairement aux hématies des mammifères et donc de l'Homme[5].</t>
+Hématies nucléées, contrairement aux hématies des mammifères et donc de l'Homme.</t>
         </is>
       </c>
     </row>
@@ -578,9 +594,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (12 août 2015)[6] (qui reprend la classification du World Register of Marine Species pour le taxon alternatif « Actinopteri ») :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (12 août 2015) (qui reprend la classification du World Register of Marine Species pour le taxon alternatif « Actinopteri ») :
 ordre Acanthuriformes -- Poissons-chirurgiens ;
 ordre Acipenseriformes -- Esturgeons et apparentés ;
 ordre Albuliformes ;
